--- a/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/catboost_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/catboost_optimisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="15">
   <si>
     <t>iterations</t>
   </si>
@@ -55,10 +55,10 @@
     <t>roc_auc_std</t>
   </si>
   <si>
-    <t>{'depth': 6, 'learning_rate': 0.3}</t>
+    <t>{'depth': 4, 'learning_rate': 0.1}</t>
   </si>
   <si>
-    <t>[0.73205742 0.66985646 0.71770335 0.82296651 0.745     ]</t>
+    <t>[0.91666667 0.81666667 0.71666667 0.83333333 0.8       ]</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6606227728129255</v>
+        <v>0.4976190476190476</v>
       </c>
       <c r="D2">
-        <v>0.06110007254194202</v>
+        <v>0.1942337699001245</v>
       </c>
       <c r="E2">
-        <v>0.7959284394326096</v>
+        <v>0.6292592592592594</v>
       </c>
       <c r="F2">
-        <v>0.03121403409141824</v>
+        <v>0.1381486446222834</v>
       </c>
       <c r="G2">
-        <v>0.6627815557959156</v>
+        <v>0.6595295567188757</v>
       </c>
       <c r="H2">
-        <v>0.02996396846061822</v>
+        <v>0.01675125894187018</v>
       </c>
       <c r="I2">
-        <v>0.5865906824061625</v>
+        <v>0.6420451358296531</v>
       </c>
       <c r="J2">
-        <v>0.01232282325078361</v>
+        <v>0.007555005202824483</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -501,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="M2">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N2">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -515,28 +515,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7607751937984497</v>
+        <v>0.5557142857142858</v>
       </c>
       <c r="D3">
-        <v>0.04628214634631569</v>
+        <v>0.1681532342956317</v>
       </c>
       <c r="E3">
-        <v>0.8816146313647331</v>
+        <v>0.63352027549371</v>
       </c>
       <c r="F3">
-        <v>0.02336116953489309</v>
+        <v>0.10705638048782</v>
       </c>
       <c r="G3">
-        <v>0.6465961073496034</v>
+        <v>0.6139386638137636</v>
       </c>
       <c r="H3">
-        <v>0.02715717070967713</v>
+        <v>0.01707497140631533</v>
       </c>
       <c r="I3">
-        <v>0.5005737070214539</v>
+        <v>0.586423279900735</v>
       </c>
       <c r="J3">
-        <v>0.01078843235826445</v>
+        <v>0.01921050511455325</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -545,10 +545,10 @@
         <v>14</v>
       </c>
       <c r="M3">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N3">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -559,28 +559,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7382472320645888</v>
+        <v>0.5811688311688312</v>
       </c>
       <c r="D4">
-        <v>0.03003686583328651</v>
+        <v>0.1852926373166269</v>
       </c>
       <c r="E4">
-        <v>0.9216458734779618</v>
+        <v>0.6238034998945815</v>
       </c>
       <c r="F4">
-        <v>0.0134399503978312</v>
+        <v>0.1480372379968661</v>
       </c>
       <c r="G4">
-        <v>0.6386498485188926</v>
+        <v>0.5911127027019535</v>
       </c>
       <c r="H4">
-        <v>0.02284870493983111</v>
+        <v>0.03078311149768168</v>
       </c>
       <c r="I4">
-        <v>0.4378197468734503</v>
+        <v>0.540777175502734</v>
       </c>
       <c r="J4">
-        <v>0.01003077535003667</v>
+        <v>0.02455663631909271</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -589,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="M4">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N4">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7521077888519749</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D5">
-        <v>0.03151792778210667</v>
+        <v>0.2241448855209849</v>
       </c>
       <c r="E5">
-        <v>0.9535799326995681</v>
+        <v>0.7597190712513294</v>
       </c>
       <c r="F5">
-        <v>0.01535939526413394</v>
+        <v>0.1083186791680255</v>
       </c>
       <c r="G5">
-        <v>0.6372072951898472</v>
+        <v>0.5736781924646535</v>
       </c>
       <c r="H5">
-        <v>0.04542276180877293</v>
+        <v>0.04163096476739958</v>
       </c>
       <c r="I5">
-        <v>0.3740274423536322</v>
+        <v>0.494831265999073</v>
       </c>
       <c r="J5">
-        <v>0.003163123609407861</v>
+        <v>0.03323102220298599</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="M5">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N5">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -647,28 +647,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7495359096828923</v>
+        <v>0.488095238095238</v>
       </c>
       <c r="D6">
-        <v>0.02285238892588323</v>
+        <v>0.2051629516620724</v>
       </c>
       <c r="E6">
-        <v>0.9694245945537858</v>
+        <v>0.7984366719660838</v>
       </c>
       <c r="F6">
-        <v>0.01028686158813007</v>
+        <v>0.1020148349211295</v>
       </c>
       <c r="G6">
-        <v>0.6223886182679561</v>
+        <v>0.5635584542506338</v>
       </c>
       <c r="H6">
-        <v>0.02411106308467565</v>
+        <v>0.04004483843090553</v>
       </c>
       <c r="I6">
-        <v>0.3288846436509617</v>
+        <v>0.4695569455482685</v>
       </c>
       <c r="J6">
-        <v>0.007296002658415076</v>
+        <v>0.0267795537247738</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="M6">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N6">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -691,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.7506382518974691</v>
+        <v>0.5080952380952382</v>
       </c>
       <c r="D7">
-        <v>0.03825571395758354</v>
+        <v>0.1942746262008694</v>
       </c>
       <c r="E7">
-        <v>0.9720701458021553</v>
+        <v>0.8196078431372549</v>
       </c>
       <c r="F7">
-        <v>0.007327402830196836</v>
+        <v>0.07974090589076537</v>
       </c>
       <c r="G7">
-        <v>0.6267933259390536</v>
+        <v>0.5522056988733656</v>
       </c>
       <c r="H7">
-        <v>0.04096951858242426</v>
+        <v>0.04438005049190297</v>
       </c>
       <c r="I7">
-        <v>0.2968336687103522</v>
+        <v>0.4412732036161712</v>
       </c>
       <c r="J7">
-        <v>0.008758812720989356</v>
+        <v>0.02915904142401038</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="M7">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N7">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -735,28 +735,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7698272529873804</v>
+        <v>0.5080952380952382</v>
       </c>
       <c r="D8">
-        <v>0.06093047600971108</v>
+        <v>0.1942746262008694</v>
       </c>
       <c r="E8">
-        <v>0.9746186303148328</v>
+        <v>0.8042232277526395</v>
       </c>
       <c r="F8">
-        <v>0.0001451520920155639</v>
+        <v>0.09526860116443656</v>
       </c>
       <c r="G8">
-        <v>0.6226979506316415</v>
+        <v>0.534106393561675</v>
       </c>
       <c r="H8">
-        <v>0.05576199908389071</v>
+        <v>0.05120188956812279</v>
       </c>
       <c r="I8">
-        <v>0.2697319773242389</v>
+        <v>0.4113957742693303</v>
       </c>
       <c r="J8">
-        <v>0.01188220109375585</v>
+        <v>0.03027279400967236</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="M8">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N8">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -779,28 +779,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.748900315037581</v>
+        <v>0.511904761904762</v>
       </c>
       <c r="D9">
-        <v>0.03411121776575419</v>
+        <v>0.2159328231811554</v>
       </c>
       <c r="E9">
-        <v>0.9897267310458189</v>
+        <v>0.7838310708898945</v>
       </c>
       <c r="F9">
-        <v>0.008591892964506544</v>
+        <v>0.09234430804060335</v>
       </c>
       <c r="G9">
-        <v>0.6287684528083762</v>
+        <v>0.5223287236158188</v>
       </c>
       <c r="H9">
-        <v>0.06931033944462753</v>
+        <v>0.05541711813135063</v>
       </c>
       <c r="I9">
-        <v>0.2420733207317894</v>
+        <v>0.3878731905017532</v>
       </c>
       <c r="J9">
-        <v>0.01371281523918992</v>
+        <v>0.03136676238567016</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="M9">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N9">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -823,28 +823,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7797551335197147</v>
+        <v>0.569047619047619</v>
       </c>
       <c r="D10">
-        <v>0.04440624574461077</v>
+        <v>0.1750445359591695</v>
       </c>
       <c r="E10">
-        <v>0.9896939619520266</v>
+        <v>0.8085552115583076</v>
       </c>
       <c r="F10">
-        <v>0.005761361739779453</v>
+        <v>0.05802132556146083</v>
       </c>
       <c r="G10">
-        <v>0.6235240182373941</v>
+        <v>0.5113703963692303</v>
       </c>
       <c r="H10">
-        <v>0.07062044524116277</v>
+        <v>0.06052989754343784</v>
       </c>
       <c r="I10">
-        <v>0.2178161251635333</v>
+        <v>0.3701125337661847</v>
       </c>
       <c r="J10">
-        <v>0.01450954095664702</v>
+        <v>0.03131752304165844</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="M10">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N10">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -867,28 +867,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7636730213657155</v>
+        <v>0.5945054945054945</v>
       </c>
       <c r="D11">
-        <v>0.02705434197072366</v>
+        <v>0.1901825275702796</v>
       </c>
       <c r="E11">
-        <v>0.9935483870967742</v>
+        <v>0.833170596173692</v>
       </c>
       <c r="F11">
-        <v>0.00790157981542958</v>
+        <v>0.0766132198859393</v>
       </c>
       <c r="G11">
-        <v>0.6352228848673021</v>
+        <v>0.4999779688293713</v>
       </c>
       <c r="H11">
-        <v>0.06526810207217404</v>
+        <v>0.06732588051259178</v>
       </c>
       <c r="I11">
-        <v>0.1963539630959736</v>
+        <v>0.3532310605666058</v>
       </c>
       <c r="J11">
-        <v>0.0130630013773517</v>
+        <v>0.02909717142589036</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="M11">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N11">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -911,28 +911,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7830263678629852</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="D12">
-        <v>0.06040788672457546</v>
+        <v>0.1929526512478715</v>
       </c>
       <c r="E12">
-        <v>0.9974024878768712</v>
+        <v>0.8156140350877192</v>
       </c>
       <c r="F12">
-        <v>0.003556914934445639</v>
+        <v>0.05330851222972283</v>
       </c>
       <c r="G12">
-        <v>0.6320508472836719</v>
+        <v>0.4966915404195689</v>
       </c>
       <c r="H12">
-        <v>0.0679797282741029</v>
+        <v>0.07747213137592825</v>
       </c>
       <c r="I12">
-        <v>0.1815880908589425</v>
+        <v>0.338037107097528</v>
       </c>
       <c r="J12">
-        <v>0.01330065890424863</v>
+        <v>0.02922740309410939</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="M12">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N12">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -955,28 +955,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.783598444680099</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="D13">
-        <v>0.07120185780097164</v>
+        <v>0.1929526512478715</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8294960989697833</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.04737970150055276</v>
       </c>
       <c r="G13">
-        <v>0.6305521694167856</v>
+        <v>0.4930188827000003</v>
       </c>
       <c r="H13">
-        <v>0.08329831423922925</v>
+        <v>0.07923220439973111</v>
       </c>
       <c r="I13">
-        <v>0.164961758301845</v>
+        <v>0.3233146077945054</v>
       </c>
       <c r="J13">
-        <v>0.01711490758575834</v>
+        <v>0.02874633857392042</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>14</v>
       </c>
       <c r="M13">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N13">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -999,28 +999,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8019022907554303</v>
+        <v>0.569047619047619</v>
       </c>
       <c r="D14">
-        <v>0.07593285598304284</v>
+        <v>0.1750445359591695</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.8541114835851678</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.05881562174381386</v>
       </c>
       <c r="G14">
-        <v>0.630048871337278</v>
+        <v>0.4885489585715775</v>
       </c>
       <c r="H14">
-        <v>0.09136148097950444</v>
+        <v>0.07985453476198799</v>
       </c>
       <c r="I14">
-        <v>0.1538767177712898</v>
+        <v>0.305836740118549</v>
       </c>
       <c r="J14">
-        <v>0.01725078260532784</v>
+        <v>0.02686297924303457</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="M14">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N14">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1043,28 +1043,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7878235239937366</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="D15">
-        <v>0.06032796265589691</v>
+        <v>0.1929526512478715</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.8607781502518345</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.05272230574985143</v>
       </c>
       <c r="G15">
-        <v>0.639692816959475</v>
+        <v>0.4803341150325256</v>
       </c>
       <c r="H15">
-        <v>0.08817311013628427</v>
+        <v>0.08717275056083865</v>
       </c>
       <c r="I15">
-        <v>0.1420354987155474</v>
+        <v>0.2888661586827256</v>
       </c>
       <c r="J15">
-        <v>0.0128851855686461</v>
+        <v>0.02599006732367689</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="M15">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N15">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1087,28 +1087,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7830641821946169</v>
+        <v>0.6168831168831168</v>
       </c>
       <c r="D16">
-        <v>0.0626851385182509</v>
+        <v>0.1996027214642168</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.8895398140584276</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.06675332663634813</v>
       </c>
       <c r="G16">
-        <v>0.6330845646571462</v>
+        <v>0.4740307045538181</v>
       </c>
       <c r="H16">
-        <v>0.08221920627673655</v>
+        <v>0.09201049770729523</v>
       </c>
       <c r="I16">
-        <v>0.1304665760630869</v>
+        <v>0.2745861775338342</v>
       </c>
       <c r="J16">
-        <v>0.01145054897479274</v>
+        <v>0.02616474922844537</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N16">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1131,28 +1131,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7971519708361814</v>
+        <v>0.6168831168831168</v>
       </c>
       <c r="D17">
-        <v>0.04510786236354308</v>
+        <v>0.1996027214642168</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9090606441055735</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04396316524580259</v>
       </c>
       <c r="G17">
-        <v>0.6322605711147908</v>
+        <v>0.4689519507527282</v>
       </c>
       <c r="H17">
-        <v>0.0767636585348785</v>
+        <v>0.09259655268843804</v>
       </c>
       <c r="I17">
-        <v>0.1185481544533259</v>
+        <v>0.2675825258863301</v>
       </c>
       <c r="J17">
-        <v>0.009507934780137745</v>
+        <v>0.02583675080276238</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>14</v>
       </c>
       <c r="M17">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N17">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1175,28 +1175,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7990904410895301</v>
+        <v>0.6002164502164502</v>
       </c>
       <c r="D18">
-        <v>0.04067895257816524</v>
+        <v>0.1889010283409643</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9144452594901888</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0476068376506086</v>
       </c>
       <c r="G18">
-        <v>0.6354714865670358</v>
+        <v>0.4712358296292488</v>
       </c>
       <c r="H18">
-        <v>0.08730891085996553</v>
+        <v>0.09872219022358347</v>
       </c>
       <c r="I18">
-        <v>0.1087014286654758</v>
+        <v>0.2561583865940651</v>
       </c>
       <c r="J18">
-        <v>0.007093113051288817</v>
+        <v>0.02488841539033329</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>14</v>
       </c>
       <c r="M18">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N18">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1219,28 +1219,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7800185675053118</v>
+        <v>0.588095238095238</v>
       </c>
       <c r="D19">
-        <v>0.03741895837890061</v>
+        <v>0.180466138682259</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.9311659072634682</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.04535842097100861</v>
       </c>
       <c r="G19">
-        <v>0.6374236435019391</v>
+        <v>0.465722957180549</v>
       </c>
       <c r="H19">
-        <v>0.09173814236657149</v>
+        <v>0.1031422952420791</v>
       </c>
       <c r="I19">
-        <v>0.1009483404083195</v>
+        <v>0.2458178572837929</v>
       </c>
       <c r="J19">
-        <v>0.008111022663206737</v>
+        <v>0.02345739434214139</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>14</v>
       </c>
       <c r="M19">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N19">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1263,28 +1263,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.76811380560055</v>
+        <v>0.588095238095238</v>
       </c>
       <c r="D20">
-        <v>0.03508080704994927</v>
+        <v>0.180466138682259</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.9416724738675958</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.0489577106718533</v>
       </c>
       <c r="G20">
-        <v>0.6446149791608091</v>
+        <v>0.4643536309418582</v>
       </c>
       <c r="H20">
-        <v>0.09064938191378709</v>
+        <v>0.1049166039926819</v>
       </c>
       <c r="I20">
-        <v>0.0931314182455845</v>
+        <v>0.2352022512373095</v>
       </c>
       <c r="J20">
-        <v>0.007429413091296179</v>
+        <v>0.02105361902927703</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>14</v>
       </c>
       <c r="M20">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N20">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1307,28 +1307,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.795311763626642</v>
+        <v>0.6002164502164502</v>
       </c>
       <c r="D21">
-        <v>0.04810623825371083</v>
+        <v>0.1889010283409643</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.9365505226480837</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.04575441613049459</v>
       </c>
       <c r="G21">
-        <v>0.6422380856213274</v>
+        <v>0.4572845598236214</v>
       </c>
       <c r="H21">
-        <v>0.09150962050821332</v>
+        <v>0.1004549996505936</v>
       </c>
       <c r="I21">
-        <v>0.08463795810879567</v>
+        <v>0.2268426890079944</v>
       </c>
       <c r="J21">
-        <v>0.007324210732054403</v>
+        <v>0.02186919479495297</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         <v>14</v>
       </c>
       <c r="M21">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N21">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1351,28 +1351,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7917401792269236</v>
+        <v>0.588095238095238</v>
       </c>
       <c r="D22">
-        <v>0.0518665471269254</v>
+        <v>0.180466138682259</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.9519163763066203</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.05298000782926332</v>
       </c>
       <c r="G22">
-        <v>0.6370279784783877</v>
+        <v>0.4559656308401825</v>
       </c>
       <c r="H22">
-        <v>0.09052380101299794</v>
+        <v>0.1002289753669336</v>
       </c>
       <c r="I22">
-        <v>0.07860027094313093</v>
+        <v>0.216411640510319</v>
       </c>
       <c r="J22">
-        <v>0.006814586984085904</v>
+        <v>0.02298269969970378</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="M22">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N22">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7820627022323735</v>
+        <v>0.588095238095238</v>
       </c>
       <c r="D23">
-        <v>0.0408151191723295</v>
+        <v>0.180466138682259</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.9467944250871081</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.05132896172997929</v>
       </c>
       <c r="G23">
-        <v>0.6354863130828253</v>
+        <v>0.4533928108608204</v>
       </c>
       <c r="H23">
-        <v>0.08384674581893037</v>
+        <v>0.1022793718528672</v>
       </c>
       <c r="I23">
-        <v>0.07305580472815407</v>
+        <v>0.2085725117594305</v>
       </c>
       <c r="J23">
-        <v>0.006699530350608485</v>
+        <v>0.02183822225446044</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>14</v>
       </c>
       <c r="M23">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N23">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1439,28 +1439,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.786209043695788</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D24">
-        <v>0.04734090127134105</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.9802376485303315</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.0110607584587538</v>
       </c>
       <c r="G24">
-        <v>0.6420936469237494</v>
+        <v>0.4579644484948299</v>
       </c>
       <c r="H24">
-        <v>0.08625729359610113</v>
+        <v>0.1076820222989429</v>
       </c>
       <c r="I24">
-        <v>0.0667743426709568</v>
+        <v>0.19912287072634</v>
       </c>
       <c r="J24">
-        <v>0.006639038700539789</v>
+        <v>0.01857078120981944</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>14</v>
       </c>
       <c r="M24">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N24">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1483,28 +1483,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7911880872750439</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D25">
-        <v>0.05238306100973338</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.9802376485303315</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.0110607584587538</v>
       </c>
       <c r="G25">
-        <v>0.6473095451530518</v>
+        <v>0.4586438098320217</v>
       </c>
       <c r="H25">
-        <v>0.07602557090906223</v>
+        <v>0.1071341595687478</v>
       </c>
       <c r="I25">
-        <v>0.06126036614921844</v>
+        <v>0.192511507437418</v>
       </c>
       <c r="J25">
-        <v>0.006490221188633059</v>
+        <v>0.01866912121126455</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="M25">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N25">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1527,28 +1527,28 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.7850342411211977</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D26">
-        <v>0.05289391557730658</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.9802376485303315</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.0110607584587538</v>
       </c>
       <c r="G26">
-        <v>0.6471873743476264</v>
+        <v>0.4579147430547023</v>
       </c>
       <c r="H26">
-        <v>0.0750927721274065</v>
+        <v>0.1142681074558824</v>
       </c>
       <c r="I26">
-        <v>0.05796880180520385</v>
+        <v>0.1878822239851346</v>
       </c>
       <c r="J26">
-        <v>0.007260285349363364</v>
+        <v>0.01894325370263574</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>14</v>
       </c>
       <c r="M26">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N26">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1571,28 +1571,28 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7782510176038994</v>
+        <v>0.55</v>
       </c>
       <c r="D27">
-        <v>0.03448301189742042</v>
+        <v>0.2221442607009199</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.9902439024390244</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.0133590867684187</v>
       </c>
       <c r="G27">
-        <v>0.66229536637401</v>
+        <v>0.4584838529066629</v>
       </c>
       <c r="H27">
-        <v>0.08245961376175914</v>
+        <v>0.11802909326459</v>
       </c>
       <c r="I27">
-        <v>0.05295505503897098</v>
+        <v>0.1797720001176763</v>
       </c>
       <c r="J27">
-        <v>0.006100476352267585</v>
+        <v>0.01921938947944371</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>14</v>
       </c>
       <c r="M27">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N27">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1615,28 +1615,28 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7882510176038993</v>
+        <v>0.560989010989011</v>
       </c>
       <c r="D28">
-        <v>0.04725254140699899</v>
+        <v>0.2333778227981385</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G28">
-        <v>0.6652841395118061</v>
+        <v>0.4607960683703312</v>
       </c>
       <c r="H28">
-        <v>0.08848857252549154</v>
+        <v>0.124462748899275</v>
       </c>
       <c r="I28">
-        <v>0.04960238753354274</v>
+        <v>0.17264464189434</v>
       </c>
       <c r="J28">
-        <v>0.005029797220974208</v>
+        <v>0.01825617986664172</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>14</v>
       </c>
       <c r="M28">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N28">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1659,28 +1659,28 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.776253340484271</v>
+        <v>0.5038461538461538</v>
       </c>
       <c r="D29">
-        <v>0.03454458398194685</v>
+        <v>0.3318383635744614</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G29">
-        <v>0.6635561555836812</v>
+        <v>0.4558881277332132</v>
       </c>
       <c r="H29">
-        <v>0.08774718965515027</v>
+        <v>0.1237181806713369</v>
       </c>
       <c r="I29">
-        <v>0.04585680577881558</v>
+        <v>0.1667269348841531</v>
       </c>
       <c r="J29">
-        <v>0.004684961769943287</v>
+        <v>0.01744231087785777</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="M29">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N29">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1703,28 +1703,28 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.7901557795086612</v>
+        <v>0.5038461538461538</v>
       </c>
       <c r="D30">
-        <v>0.0480301030001898</v>
+        <v>0.3318383635744614</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G30">
-        <v>0.6611521008699868</v>
+        <v>0.4537876824095176</v>
       </c>
       <c r="H30">
-        <v>0.0851300277135701</v>
+        <v>0.123836580016766</v>
       </c>
       <c r="I30">
-        <v>0.04250885334415969</v>
+        <v>0.1624084305541476</v>
       </c>
       <c r="J30">
-        <v>0.003817647711437922</v>
+        <v>0.01679886301191418</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>14</v>
       </c>
       <c r="M30">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N30">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1747,28 +1747,28 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.7976996839925902</v>
+        <v>0.5514652014652015</v>
       </c>
       <c r="D31">
-        <v>0.04167231023572675</v>
+        <v>0.3180494029570827</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G31">
-        <v>0.6647144790712399</v>
+        <v>0.4551631778871547</v>
       </c>
       <c r="H31">
-        <v>0.0872925345025847</v>
+        <v>0.1275003243238163</v>
       </c>
       <c r="I31">
-        <v>0.03996376273370117</v>
+        <v>0.1571589674387617</v>
       </c>
       <c r="J31">
-        <v>0.003517033706667129</v>
+        <v>0.01756159216393569</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>14</v>
       </c>
       <c r="M31">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N31">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1791,10 +1791,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.7932941941296897</v>
+        <v>0.5514652014652015</v>
       </c>
       <c r="D32">
-        <v>0.04886571751997435</v>
+        <v>0.3180494029570827</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1803,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.6664567062823596</v>
+        <v>0.4566392704447593</v>
       </c>
       <c r="H32">
-        <v>0.08468929980431703</v>
+        <v>0.1305505417989007</v>
       </c>
       <c r="I32">
-        <v>0.03802679927121618</v>
+        <v>0.1522859130836257</v>
       </c>
       <c r="J32">
-        <v>0.003884361675897402</v>
+        <v>0.01830062499046057</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>14</v>
       </c>
       <c r="M32">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N32">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1835,10 +1835,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.7907118967988533</v>
+        <v>0.5514652014652015</v>
       </c>
       <c r="D33">
-        <v>0.05493701127039991</v>
+        <v>0.3180494029570827</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.6686323233879889</v>
+        <v>0.4535126111657144</v>
       </c>
       <c r="H33">
-        <v>0.09041622622458914</v>
+        <v>0.1295605057148441</v>
       </c>
       <c r="I33">
-        <v>0.03577358508184936</v>
+        <v>0.1495140618814287</v>
       </c>
       <c r="J33">
-        <v>0.003631952739214426</v>
+        <v>0.01759972177016177</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>14</v>
       </c>
       <c r="M33">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N33">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1879,10 +1879,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.7895289671086487</v>
+        <v>0.5514652014652015</v>
       </c>
       <c r="D34">
-        <v>0.04802054305486567</v>
+        <v>0.3180494029570827</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.6717906081439484</v>
+        <v>0.4567276940446812</v>
       </c>
       <c r="H34">
-        <v>0.09205595812581113</v>
+        <v>0.1267057861687716</v>
       </c>
       <c r="I34">
-        <v>0.0337396865706031</v>
+        <v>0.1441078606743099</v>
       </c>
       <c r="J34">
-        <v>0.003615291090452013</v>
+        <v>0.01549044306430084</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>14</v>
       </c>
       <c r="M34">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N34">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1923,10 +1923,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.7823686735396286</v>
+        <v>0.5316239316239316</v>
       </c>
       <c r="D35">
-        <v>0.04203876691447352</v>
+        <v>0.3620341714882057</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.680796680385745</v>
+        <v>0.4577208446694218</v>
       </c>
       <c r="H35">
-        <v>0.09376580865285793</v>
+        <v>0.1332141584249626</v>
       </c>
       <c r="I35">
-        <v>0.03182337416329322</v>
+        <v>0.1383529626376009</v>
       </c>
       <c r="J35">
-        <v>0.003623191072435233</v>
+        <v>0.01707301883121117</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>14</v>
       </c>
       <c r="M35">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N35">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1967,10 +1967,10 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.784348578579509</v>
+        <v>0.560989010989011</v>
       </c>
       <c r="D36">
-        <v>0.04684360791631052</v>
+        <v>0.2333778227981385</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.6830365046280696</v>
+        <v>0.4591561611619017</v>
       </c>
       <c r="H36">
-        <v>0.09479777671325836</v>
+        <v>0.1315967272624444</v>
       </c>
       <c r="I36">
-        <v>0.03017246103168734</v>
+        <v>0.1340014518121248</v>
       </c>
       <c r="J36">
-        <v>0.003411780982871568</v>
+        <v>0.01685839994296533</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>14</v>
       </c>
       <c r="M36">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N36">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2011,10 +2011,10 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.7822298201449612</v>
+        <v>0.5738095238095238</v>
       </c>
       <c r="D37">
-        <v>0.03000214783643485</v>
+        <v>0.2489205721654309</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.68509135145879</v>
+        <v>0.4603325345891909</v>
       </c>
       <c r="H37">
-        <v>0.09160532432412981</v>
+        <v>0.1350035839743328</v>
       </c>
       <c r="I37">
-        <v>0.02854441218136099</v>
+        <v>0.1296186831462868</v>
       </c>
       <c r="J37">
-        <v>0.003036563221137196</v>
+        <v>0.01480697743837272</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>14</v>
       </c>
       <c r="M37">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N37">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2055,10 +2055,10 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7788995703762286</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D38">
-        <v>0.03086142117975657</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2067,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.6880303617853706</v>
+        <v>0.4600818535404582</v>
       </c>
       <c r="H38">
-        <v>0.0967437164537904</v>
+        <v>0.1335918570486751</v>
       </c>
       <c r="I38">
-        <v>0.02706671176694275</v>
+        <v>0.1267841745639267</v>
       </c>
       <c r="J38">
-        <v>0.002629385060020287</v>
+        <v>0.01511427900374334</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>14</v>
       </c>
       <c r="M38">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N38">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2099,10 +2099,10 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.7825483441044081</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D39">
-        <v>0.01856848808490189</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2111,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.6872246150269159</v>
+        <v>0.4619125446177682</v>
       </c>
       <c r="H39">
-        <v>0.09615127993649805</v>
+        <v>0.139563520562465</v>
       </c>
       <c r="I39">
-        <v>0.02562471746377157</v>
+        <v>0.1224800467441027</v>
       </c>
       <c r="J39">
-        <v>0.002366070024505531</v>
+        <v>0.01591626257912367</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>14</v>
       </c>
       <c r="M39">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N39">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2143,10 +2143,10 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.7706599832915623</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D40">
-        <v>0.02877845915257933</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.6925999613461695</v>
+        <v>0.4633450440182997</v>
       </c>
       <c r="H40">
-        <v>0.09728827556870132</v>
+        <v>0.1452160158337369</v>
       </c>
       <c r="I40">
-        <v>0.02464959595528278</v>
+        <v>0.1190371733265247</v>
       </c>
       <c r="J40">
-        <v>0.002297917285939065</v>
+        <v>0.0153501621946461</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>14</v>
       </c>
       <c r="M40">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N40">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2187,10 +2187,10 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.7822784385713447</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D41">
-        <v>0.03421927218662975</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2199,16 +2199,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.6955260495245301</v>
+        <v>0.4615844280537942</v>
       </c>
       <c r="H41">
-        <v>0.1025081166829018</v>
+        <v>0.1485664373413731</v>
       </c>
       <c r="I41">
-        <v>0.02360056398648398</v>
+        <v>0.1145407903542645</v>
       </c>
       <c r="J41">
-        <v>0.002239044884167137</v>
+        <v>0.0144537700883081</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="M41">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N41">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2231,10 +2231,10 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.7760706113108859</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D42">
-        <v>0.02775361398455003</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2243,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.6967260564464779</v>
+        <v>0.459355045524603</v>
       </c>
       <c r="H42">
-        <v>0.1002402461292576</v>
+        <v>0.1539392559801471</v>
       </c>
       <c r="I42">
-        <v>0.02252174938611478</v>
+        <v>0.1098979174342993</v>
       </c>
       <c r="J42">
-        <v>0.002198719646997291</v>
+        <v>0.01398232596237524</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         <v>14</v>
       </c>
       <c r="M42">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N42">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2275,10 +2275,10 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.7818291938136543</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D43">
-        <v>0.02705792712112242</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.7007802571979108</v>
+        <v>0.4632929700151685</v>
       </c>
       <c r="H43">
-        <v>0.0988670780888864</v>
+        <v>0.1509566212100044</v>
       </c>
       <c r="I43">
-        <v>0.02164619275701593</v>
+        <v>0.1070800465254154</v>
       </c>
       <c r="J43">
-        <v>0.002156599073173599</v>
+        <v>0.0127525968116166</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>14</v>
       </c>
       <c r="M43">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N43">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2319,10 +2319,10 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.7795488721804511</v>
+        <v>0.6086080586080586</v>
       </c>
       <c r="D44">
-        <v>0.02979274223536163</v>
+        <v>0.1967262317718314</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2331,16 +2331,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.7013191819105327</v>
+        <v>0.4623158490322137</v>
       </c>
       <c r="H44">
-        <v>0.1042972117889017</v>
+        <v>0.1506593404188399</v>
       </c>
       <c r="I44">
-        <v>0.02071511886883943</v>
+        <v>0.1053172279380059</v>
       </c>
       <c r="J44">
-        <v>0.002024572941924093</v>
+        <v>0.01245987741889096</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>14</v>
       </c>
       <c r="M44">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N44">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2363,10 +2363,10 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.7822784385713447</v>
+        <v>0.6363858363858363</v>
       </c>
       <c r="D45">
-        <v>0.03421927218662975</v>
+        <v>0.2288626657569713</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.7047777680603352</v>
+        <v>0.4622475304453428</v>
       </c>
       <c r="H45">
-        <v>0.1043612381186601</v>
+        <v>0.1546751110550203</v>
       </c>
       <c r="I45">
-        <v>0.01994897312258557</v>
+        <v>0.1022797314384462</v>
       </c>
       <c r="J45">
-        <v>0.002043955080773025</v>
+        <v>0.01209749037074143</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="M45">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N45">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2407,10 +2407,10 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.7915152819436784</v>
+        <v>0.6363858363858363</v>
       </c>
       <c r="D46">
-        <v>0.03250761249143409</v>
+        <v>0.2288626657569713</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2419,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.7084317186961141</v>
+        <v>0.4601593114227365</v>
       </c>
       <c r="H46">
-        <v>0.1022449744711876</v>
+        <v>0.1554112651151086</v>
       </c>
       <c r="I46">
-        <v>0.01925457403413727</v>
+        <v>0.09946726744566636</v>
       </c>
       <c r="J46">
-        <v>0.001827091251602991</v>
+        <v>0.01180473508576284</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>14</v>
       </c>
       <c r="M46">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N46">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2451,10 +2451,10 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.78575669944091</v>
+        <v>0.6363858363858363</v>
       </c>
       <c r="D47">
-        <v>0.03513291737202102</v>
+        <v>0.2288626657569713</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2463,16 +2463,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.7115739527372323</v>
+        <v>0.459033298820137</v>
       </c>
       <c r="H47">
-        <v>0.1083192561011988</v>
+        <v>0.1574302912679374</v>
       </c>
       <c r="I47">
-        <v>0.01847108428267314</v>
+        <v>0.09581662944013566</v>
       </c>
       <c r="J47">
-        <v>0.001606935175765936</v>
+        <v>0.01152952019733252</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>14</v>
       </c>
       <c r="M47">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N47">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2495,10 +2495,10 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.7915152819436784</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D48">
-        <v>0.03250761249143409</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.710613669606645</v>
+        <v>0.4592813725845581</v>
       </c>
       <c r="H48">
-        <v>0.113213348330859</v>
+        <v>0.1551478975551089</v>
       </c>
       <c r="I48">
-        <v>0.01783860511357395</v>
+        <v>0.09370108731593482</v>
       </c>
       <c r="J48">
-        <v>0.001464618524618491</v>
+        <v>0.01090681037206379</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>14</v>
       </c>
       <c r="M48">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N48">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2539,10 +2539,10 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.7915152819436784</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D49">
-        <v>0.03250761249143409</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.7090242090579663</v>
+        <v>0.4577255064051666</v>
       </c>
       <c r="H49">
-        <v>0.1121303903762426</v>
+        <v>0.1581563594189525</v>
       </c>
       <c r="I49">
-        <v>0.01731332796845618</v>
+        <v>0.09009706374064193</v>
       </c>
       <c r="J49">
-        <v>0.001334048257477282</v>
+        <v>0.009723555792738092</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>14</v>
       </c>
       <c r="M49">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N49">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2583,10 +2583,10 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.7803021539863645</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D50">
-        <v>0.03447978230560624</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2595,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.7125621730312721</v>
+        <v>0.457939884517564</v>
       </c>
       <c r="H50">
-        <v>0.1128410898572293</v>
+        <v>0.1596896257804128</v>
       </c>
       <c r="I50">
-        <v>0.01675720596278697</v>
+        <v>0.08672470588655837</v>
       </c>
       <c r="J50">
-        <v>0.001357869167318492</v>
+        <v>0.008853338763654532</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>14</v>
       </c>
       <c r="M50">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N50">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2627,10 +2627,10 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D51">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.7125900473166965</v>
+        <v>0.4585617917687163</v>
       </c>
       <c r="H51">
-        <v>0.11503936108252</v>
+        <v>0.1589356179176374</v>
       </c>
       <c r="I51">
-        <v>0.01625716976594734</v>
+        <v>0.08399067688400237</v>
       </c>
       <c r="J51">
-        <v>0.001395245368701993</v>
+        <v>0.008347395208307393</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>14</v>
       </c>
       <c r="M51">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N51">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2671,10 +2671,10 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.7915152819436784</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D52">
-        <v>0.03250761249143409</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2683,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.7084021898304004</v>
+        <v>0.455459340435611</v>
       </c>
       <c r="H52">
-        <v>0.1171065172119873</v>
+        <v>0.1590663045646647</v>
       </c>
       <c r="I52">
-        <v>0.01577585506206239</v>
+        <v>0.08205928604278248</v>
       </c>
       <c r="J52">
-        <v>0.001367106011066546</v>
+        <v>0.007660474892117324</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>14</v>
       </c>
       <c r="M52">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N52">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2715,10 +2715,10 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D53">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.7104431400824494</v>
+        <v>0.4533170114111224</v>
       </c>
       <c r="H53">
-        <v>0.1172075449695022</v>
+        <v>0.1594268756966482</v>
       </c>
       <c r="I53">
-        <v>0.01527169989278226</v>
+        <v>0.07959405836094272</v>
       </c>
       <c r="J53">
-        <v>0.001350670734569693</v>
+        <v>0.006500693518945461</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="M53">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N53">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2759,10 +2759,10 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.786060736489133</v>
+        <v>0.6292429792429792</v>
       </c>
       <c r="D54">
-        <v>0.03301218713905115</v>
+        <v>0.2426833611817695</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2771,16 +2771,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.7117932045203548</v>
+        <v>0.4507530131325876</v>
       </c>
       <c r="H54">
-        <v>0.1163353602298588</v>
+        <v>0.1549517180434615</v>
       </c>
       <c r="I54">
-        <v>0.01485899488116635</v>
+        <v>0.07703334534391899</v>
       </c>
       <c r="J54">
-        <v>0.001378911295596933</v>
+        <v>0.00647991097172263</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>14</v>
       </c>
       <c r="M54">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N54">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2803,10 +2803,10 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D55">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2815,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.7081003519463339</v>
+        <v>0.4506752434579617</v>
       </c>
       <c r="H55">
-        <v>0.1172365802351286</v>
+        <v>0.1574617766475715</v>
       </c>
       <c r="I55">
-        <v>0.01441196986595316</v>
+        <v>0.07446179383479573</v>
       </c>
       <c r="J55">
-        <v>0.00129385559866186</v>
+        <v>0.005698948161406929</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="M55">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N55">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2847,10 +2847,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D56">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2859,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.7094593881360958</v>
+        <v>0.4560131524279797</v>
       </c>
       <c r="H56">
-        <v>0.1186160371507258</v>
+        <v>0.1640989124470161</v>
       </c>
       <c r="I56">
-        <v>0.01405973197343021</v>
+        <v>0.07203415971651247</v>
       </c>
       <c r="J56">
-        <v>0.001266905243847863</v>
+        <v>0.005946410029555601</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="M56">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N56">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2891,10 +2891,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.7974127178411143</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D57">
-        <v>0.04072065118526987</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2903,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.7104640696444383</v>
+        <v>0.4576571043915986</v>
       </c>
       <c r="H57">
-        <v>0.1207702066097976</v>
+        <v>0.1684620931592119</v>
       </c>
       <c r="I57">
-        <v>0.01368167433023604</v>
+        <v>0.06997930084983305</v>
       </c>
       <c r="J57">
-        <v>0.001223456753517512</v>
+        <v>0.005709260242280397</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>14</v>
       </c>
       <c r="M57">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N57">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2935,10 +2935,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.791958172386569</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D58">
-        <v>0.04209098054432199</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2947,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.7118266058698952</v>
+        <v>0.4569646798309851</v>
       </c>
       <c r="H58">
-        <v>0.1210619033365649</v>
+        <v>0.1681422124810745</v>
       </c>
       <c r="I58">
-        <v>0.01331885019978186</v>
+        <v>0.06829930283508097</v>
       </c>
       <c r="J58">
-        <v>0.001204332895840818</v>
+        <v>0.005232920806524099</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>14</v>
       </c>
       <c r="M58">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N58">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2979,10 +2979,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.791958172386569</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D59">
-        <v>0.04209098054432199</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.7133375522511016</v>
+        <v>0.4580023720092286</v>
       </c>
       <c r="H59">
-        <v>0.1203688413664409</v>
+        <v>0.1766716503077134</v>
       </c>
       <c r="I59">
-        <v>0.01293285683821572</v>
+        <v>0.06520370160394008</v>
       </c>
       <c r="J59">
-        <v>0.001188342822721406</v>
+        <v>0.00447618652784931</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>14</v>
       </c>
       <c r="M59">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N59">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3023,10 +3023,10 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.7915152819436784</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D60">
-        <v>0.03250761249143409</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.7160297001327222</v>
+        <v>0.4606580114665229</v>
       </c>
       <c r="H60">
-        <v>0.1220926093909721</v>
+        <v>0.1800548295689734</v>
       </c>
       <c r="I60">
-        <v>0.01262498901659737</v>
+        <v>0.06325464302327187</v>
       </c>
       <c r="J60">
-        <v>0.001100120048074903</v>
+        <v>0.004999763602515099</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>14</v>
       </c>
       <c r="M60">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N60">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3067,10 +3067,10 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D61">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.7146181074253869</v>
+        <v>0.4648819006244214</v>
       </c>
       <c r="H61">
-        <v>0.1190624276799143</v>
+        <v>0.1864764764360285</v>
       </c>
       <c r="I61">
-        <v>0.01229865204849969</v>
+        <v>0.06069014027679877</v>
       </c>
       <c r="J61">
-        <v>0.0009859296191920993</v>
+        <v>0.00509937085275607</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>14</v>
       </c>
       <c r="M61">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N61">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3111,10 +3111,10 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D62">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.7179818759336748</v>
+        <v>0.465290657424751</v>
       </c>
       <c r="H62">
-        <v>0.1156270441019324</v>
+        <v>0.1843443239789908</v>
       </c>
       <c r="I62">
-        <v>0.01199827129708501</v>
+        <v>0.05882040116673078</v>
       </c>
       <c r="J62">
-        <v>0.001006029198414016</v>
+        <v>0.004401233064488777</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3141,10 +3141,10 @@
         <v>14</v>
       </c>
       <c r="M62">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N62">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3155,10 +3155,10 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.7803524912460041</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D63">
-        <v>0.03798685984936019</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.7191283621338109</v>
+        <v>0.4676207176418741</v>
       </c>
       <c r="H63">
-        <v>0.1161604643177986</v>
+        <v>0.1845873465990826</v>
       </c>
       <c r="I63">
-        <v>0.011717858281817</v>
+        <v>0.05670824493508579</v>
       </c>
       <c r="J63">
-        <v>0.0009644796045699635</v>
+        <v>0.003801645194039287</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>14</v>
       </c>
       <c r="M63">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N63">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3199,10 +3199,10 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D64">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3211,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.7175031415781122</v>
+        <v>0.4685300414135331</v>
       </c>
       <c r="H64">
-        <v>0.1228802466845997</v>
+        <v>0.1836248359325601</v>
       </c>
       <c r="I64">
-        <v>0.01138492324285067</v>
+        <v>0.05475969490998533</v>
       </c>
       <c r="J64">
-        <v>0.0009606718626267675</v>
+        <v>0.00352380012736332</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="M64">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N64">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3243,10 +3243,10 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.791958172386569</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D65">
-        <v>0.04209098054432199</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3255,16 +3255,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.7162006359134951</v>
+        <v>0.4706583475792449</v>
       </c>
       <c r="H65">
-        <v>0.1208208285097455</v>
+        <v>0.1863437642267639</v>
       </c>
       <c r="I65">
-        <v>0.01118887654264033</v>
+        <v>0.05288302130061694</v>
       </c>
       <c r="J65">
-        <v>0.0009006778434183312</v>
+        <v>0.003246789008937842</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         <v>14</v>
       </c>
       <c r="M65">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N65">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3287,10 +3287,10 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D66">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.7180194045125795</v>
+        <v>0.4752868891182033</v>
       </c>
       <c r="H66">
-        <v>0.1230488905612853</v>
+        <v>0.1930819933251826</v>
       </c>
       <c r="I66">
-        <v>0.010920373076795</v>
+        <v>0.05141240822029296</v>
       </c>
       <c r="J66">
-        <v>0.0008525259470515408</v>
+        <v>0.00330590279211606</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>14</v>
       </c>
       <c r="M66">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N66">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3331,10 +3331,10 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.786060736489133</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D67">
-        <v>0.03301218713905115</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3343,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.7198575481548246</v>
+        <v>0.4766787728194966</v>
       </c>
       <c r="H67">
-        <v>0.1223826454873091</v>
+        <v>0.1917119078547413</v>
       </c>
       <c r="I67">
-        <v>0.01071961821872275</v>
+        <v>0.05003861438972493</v>
       </c>
       <c r="J67">
-        <v>0.0008337118387901538</v>
+        <v>0.003208054793349217</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>14</v>
       </c>
       <c r="M67">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N67">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3375,10 +3375,10 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.7803524912460041</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D68">
-        <v>0.03798685984936019</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.7215417277937172</v>
+        <v>0.4759919138975001</v>
       </c>
       <c r="H68">
-        <v>0.1232988577804305</v>
+        <v>0.1902102457415081</v>
       </c>
       <c r="I68">
-        <v>0.01048099412024332</v>
+        <v>0.04870397581795251</v>
       </c>
       <c r="J68">
-        <v>0.00077459436208926</v>
+        <v>0.002673798376813678</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>14</v>
       </c>
       <c r="M68">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N68">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3419,10 +3419,10 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.7803524912460041</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D69">
-        <v>0.03798685984936019</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.7259958187195046</v>
+        <v>0.4760333170569586</v>
       </c>
       <c r="H69">
-        <v>0.1235516431212081</v>
+        <v>0.1930957962155999</v>
       </c>
       <c r="I69">
-        <v>0.01024168720369005</v>
+        <v>0.04736536485274697</v>
       </c>
       <c r="J69">
-        <v>0.0006556156280737027</v>
+        <v>0.002520624356787498</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>14</v>
       </c>
       <c r="M69">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N69">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3463,10 +3463,10 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.7803524912460041</v>
+        <v>0.5792429792429792</v>
       </c>
       <c r="D70">
-        <v>0.03798685984936019</v>
+        <v>0.3446746091603697</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.7281187364241315</v>
+        <v>0.4761291071433874</v>
       </c>
       <c r="H70">
-        <v>0.1239795007767706</v>
+        <v>0.1921169571897479</v>
       </c>
       <c r="I70">
-        <v>0.01004215956268914</v>
+        <v>0.04577513409769306</v>
       </c>
       <c r="J70">
-        <v>0.0006598000284307007</v>
+        <v>0.001840004289701539</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="M70">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N70">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3507,10 +3507,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D71">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3519,16 +3519,16 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.7307200469196645</v>
+        <v>0.4750227297733279</v>
       </c>
       <c r="H71">
-        <v>0.1225282112745026</v>
+        <v>0.1898168609162073</v>
       </c>
       <c r="I71">
-        <v>0.009841778128196985</v>
+        <v>0.04463472679370108</v>
       </c>
       <c r="J71">
-        <v>0.0006801997341452533</v>
+        <v>0.001836276481513424</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>14</v>
       </c>
       <c r="M71">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N71">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3551,10 +3551,10 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D72">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.7323359414911768</v>
+        <v>0.4787669364174588</v>
       </c>
       <c r="H72">
-        <v>0.1266142925762682</v>
+        <v>0.1921008250222816</v>
       </c>
       <c r="I72">
-        <v>0.009604373322020217</v>
+        <v>0.04317515915871536</v>
       </c>
       <c r="J72">
-        <v>0.0006868978436973968</v>
+        <v>0.001801792424877433</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>14</v>
       </c>
       <c r="M72">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N72">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3595,10 +3595,10 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D73">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3607,16 +3607,16 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.7316943743191172</v>
+        <v>0.4772140233761698</v>
       </c>
       <c r="H73">
-        <v>0.1256167396298924</v>
+        <v>0.1933086094374082</v>
       </c>
       <c r="I73">
-        <v>0.009425491693036598</v>
+        <v>0.04207642654444967</v>
       </c>
       <c r="J73">
-        <v>0.0006766516061486073</v>
+        <v>0.001610525366266709</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3625,10 +3625,10 @@
         <v>14</v>
       </c>
       <c r="M73">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N73">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3639,10 +3639,10 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.7803524912460041</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D74">
-        <v>0.03798685984936019</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3651,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.7314592250568379</v>
+        <v>0.4770217012215537</v>
       </c>
       <c r="H74">
-        <v>0.1285708381416377</v>
+        <v>0.1927741389232439</v>
       </c>
       <c r="I74">
-        <v>0.009262085225905079</v>
+        <v>0.04140871079416615</v>
       </c>
       <c r="J74">
-        <v>0.0006281369343248266</v>
+        <v>0.001396078644690482</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="M74">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N74">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3683,10 +3683,10 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.7803524912460041</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D75">
-        <v>0.03798685984936019</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3695,16 +3695,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.7320322030896717</v>
+        <v>0.4769194079254097</v>
       </c>
       <c r="H75">
-        <v>0.129368509913176</v>
+        <v>0.1962508116575608</v>
       </c>
       <c r="I75">
-        <v>0.009122525915277204</v>
+        <v>0.04059618926983636</v>
       </c>
       <c r="J75">
-        <v>0.0006206186135302598</v>
+        <v>0.001352452164287222</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3713,10 +3713,10 @@
         <v>14</v>
       </c>
       <c r="M75">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N75">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3727,10 +3727,10 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D76">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3739,16 +3739,16 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.7316767511048708</v>
+        <v>0.4802882371946348</v>
       </c>
       <c r="H76">
-        <v>0.1275540853193216</v>
+        <v>0.2009423874323554</v>
       </c>
       <c r="I76">
-        <v>0.008969189843372163</v>
+        <v>0.03949178055586273</v>
       </c>
       <c r="J76">
-        <v>0.0006068834678880304</v>
+        <v>0.001585568108868665</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="M76">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N76">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3771,10 +3771,10 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D77">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.7340109854000247</v>
+        <v>0.4818462058732093</v>
       </c>
       <c r="H77">
-        <v>0.1277974937150831</v>
+        <v>0.2016097090918584</v>
       </c>
       <c r="I77">
-        <v>0.008850593560883552</v>
+        <v>0.03851414509540712</v>
       </c>
       <c r="J77">
-        <v>0.0006060168327223461</v>
+        <v>0.001497749437229653</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>14</v>
       </c>
       <c r="M77">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N77">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3815,10 +3815,10 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D78">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.7352892951911814</v>
+        <v>0.4848679909051975</v>
       </c>
       <c r="H78">
-        <v>0.1284882589271938</v>
+        <v>0.2058810696595148</v>
       </c>
       <c r="I78">
-        <v>0.008717184733652678</v>
+        <v>0.03761893196412212</v>
       </c>
       <c r="J78">
-        <v>0.0005667712991687508</v>
+        <v>0.001355610909283384</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3845,10 +3845,10 @@
         <v>14</v>
       </c>
       <c r="M78">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N78">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3859,10 +3859,10 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D79">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.7376288889239959</v>
+        <v>0.4837910168673782</v>
       </c>
       <c r="H79">
-        <v>0.1269984401269418</v>
+        <v>0.2057133425875159</v>
       </c>
       <c r="I79">
-        <v>0.008553279254496409</v>
+        <v>0.03696028098872352</v>
       </c>
       <c r="J79">
-        <v>0.0005651975336169386</v>
+        <v>0.001195632021698</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="M79">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N79">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3903,10 +3903,10 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.7803524912460041</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D80">
-        <v>0.03798685984936019</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3915,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.737131314634581</v>
+        <v>0.4854861164303987</v>
       </c>
       <c r="H80">
-        <v>0.1281151570132263</v>
+        <v>0.207215507962818</v>
       </c>
       <c r="I80">
-        <v>0.008408663128073635</v>
+        <v>0.03607718375921525</v>
       </c>
       <c r="J80">
-        <v>0.0005631266235514792</v>
+        <v>0.001314591905481017</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>14</v>
       </c>
       <c r="M80">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N80">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3947,10 +3947,10 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D81">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.737457818633762</v>
+        <v>0.4841068972435181</v>
       </c>
       <c r="H81">
-        <v>0.1271862165196709</v>
+        <v>0.2061277829437019</v>
       </c>
       <c r="I81">
-        <v>0.008258999004923629</v>
+        <v>0.03515537375352865</v>
       </c>
       <c r="J81">
-        <v>0.0005646768178445566</v>
+        <v>0.001401703591215995</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="M81">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N81">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3991,10 +3991,10 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D82">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4003,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.7391511617625109</v>
+        <v>0.4864874216484087</v>
       </c>
       <c r="H82">
-        <v>0.1261495856017076</v>
+        <v>0.2085115156614854</v>
       </c>
       <c r="I82">
-        <v>0.008133503883645501</v>
+        <v>0.03451106211523887</v>
       </c>
       <c r="J82">
-        <v>0.0006034895156301895</v>
+        <v>0.001375577716610403</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>14</v>
       </c>
       <c r="M82">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N82">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4035,10 +4035,10 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D83">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.7391778215834</v>
+        <v>0.4836280107334432</v>
       </c>
       <c r="H83">
-        <v>0.1249211815431712</v>
+        <v>0.2076232117908744</v>
       </c>
       <c r="I83">
-        <v>0.00797296376157099</v>
+        <v>0.03388598200242156</v>
       </c>
       <c r="J83">
-        <v>0.0005811182077648642</v>
+        <v>0.001205023824861708</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>14</v>
       </c>
       <c r="M83">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N83">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4079,10 +4079,10 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D84">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4091,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.7417254122104462</v>
+        <v>0.4855269201165276</v>
       </c>
       <c r="H84">
-        <v>0.125474465699522</v>
+        <v>0.2088054121505138</v>
       </c>
       <c r="I84">
-        <v>0.007828281589287091</v>
+        <v>0.03306982058283789</v>
       </c>
       <c r="J84">
-        <v>0.0005828467306095835</v>
+        <v>0.001309728370980197</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>14</v>
       </c>
       <c r="M84">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N84">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4123,10 +4123,10 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D85">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.7427611023461518</v>
+        <v>0.4868310532444775</v>
       </c>
       <c r="H85">
-        <v>0.1262200223189711</v>
+        <v>0.2119069528853026</v>
       </c>
       <c r="I85">
-        <v>0.007694933910028836</v>
+        <v>0.03235386058890828</v>
       </c>
       <c r="J85">
-        <v>0.0005598598305427885</v>
+        <v>0.001181182849639708</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>14</v>
       </c>
       <c r="M85">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N85">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4167,10 +4167,10 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.7803524912460041</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D86">
-        <v>0.03798685984936019</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.7435571046541204</v>
+        <v>0.4860069071655608</v>
       </c>
       <c r="H86">
-        <v>0.127378398425809</v>
+        <v>0.2120773345314881</v>
       </c>
       <c r="I86">
-        <v>0.007572642627408287</v>
+        <v>0.03164828391161535</v>
       </c>
       <c r="J86">
-        <v>0.0005107672850677393</v>
+        <v>0.001216895807187944</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>14</v>
       </c>
       <c r="M86">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N86">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4211,10 +4211,10 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.791958172386569</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D87">
-        <v>0.04209098054432199</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4223,16 +4223,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.7456685462226231</v>
+        <v>0.4873398767527083</v>
       </c>
       <c r="H87">
-        <v>0.1278812130674504</v>
+        <v>0.2107807916010742</v>
       </c>
       <c r="I87">
-        <v>0.007445962606197951</v>
+        <v>0.03113478531579188</v>
       </c>
       <c r="J87">
-        <v>0.0004558740780040705</v>
+        <v>0.001252061997161153</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4241,10 +4241,10 @@
         <v>14</v>
       </c>
       <c r="M87">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N87">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4255,10 +4255,10 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D88">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4267,16 +4267,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.7456309847853222</v>
+        <v>0.4906554569984527</v>
       </c>
       <c r="H88">
-        <v>0.126532794723072</v>
+        <v>0.2161021751813056</v>
       </c>
       <c r="I88">
-        <v>0.00734379237349179</v>
+        <v>0.03049743093461857</v>
       </c>
       <c r="J88">
-        <v>0.0004699564829923336</v>
+        <v>0.001345468116087767</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4285,10 +4285,10 @@
         <v>14</v>
       </c>
       <c r="M88">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N88">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4299,10 +4299,10 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D89">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4311,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.7476600841710882</v>
+        <v>0.4915005882465732</v>
       </c>
       <c r="H89">
-        <v>0.1280551884076504</v>
+        <v>0.2155963288371971</v>
       </c>
       <c r="I89">
-        <v>0.007230502188640235</v>
+        <v>0.03010569815247296</v>
       </c>
       <c r="J89">
-        <v>0.0004493806477685317</v>
+        <v>0.001171782935905319</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>14</v>
       </c>
       <c r="M89">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N89">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4343,10 +4343,10 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.7862499271434401</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D90">
-        <v>0.04700008181603711</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4355,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.7475147382698064</v>
+        <v>0.4943498621611143</v>
       </c>
       <c r="H90">
-        <v>0.1268202454841496</v>
+        <v>0.220181642942059</v>
       </c>
       <c r="I90">
-        <v>0.007121241741784204</v>
+        <v>0.02957473359927185</v>
       </c>
       <c r="J90">
-        <v>0.0004358830591252847</v>
+        <v>0.001204193617439896</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="M90">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N90">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4387,10 +4387,10 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.7862499271434401</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D91">
-        <v>0.04700008181603711</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.7497166459361534</v>
+        <v>0.4961851711425773</v>
       </c>
       <c r="H91">
-        <v>0.1274564170021332</v>
+        <v>0.2231010079187944</v>
       </c>
       <c r="I91">
-        <v>0.007003925294257728</v>
+        <v>0.02891518900443086</v>
       </c>
       <c r="J91">
-        <v>0.0004526475766157548</v>
+        <v>0.001166618136962968</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>14</v>
       </c>
       <c r="M91">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N91">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4431,10 +4431,10 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D92">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4443,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.7519156226511516</v>
+        <v>0.4974433043913188</v>
       </c>
       <c r="H92">
-        <v>0.1264278626725284</v>
+        <v>0.2221579060233126</v>
       </c>
       <c r="I92">
-        <v>0.006901401063436599</v>
+        <v>0.02832024067948732</v>
       </c>
       <c r="J92">
-        <v>0.000443700494579659</v>
+        <v>0.001270974875451271</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4461,10 +4461,10 @@
         <v>14</v>
       </c>
       <c r="M92">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N92">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4475,10 +4475,10 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D93">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4487,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.7519717234461958</v>
+        <v>0.4986534585499022</v>
       </c>
       <c r="H93">
-        <v>0.1278398454524457</v>
+        <v>0.2220360232044783</v>
       </c>
       <c r="I93">
-        <v>0.006811260686490938</v>
+        <v>0.02778942804769672</v>
       </c>
       <c r="J93">
-        <v>0.0004391023952360042</v>
+        <v>0.001133989523580323</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="M93">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N93">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4519,10 +4519,10 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D94">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.7539321061205755</v>
+        <v>0.5018241641215142</v>
       </c>
       <c r="H94">
-        <v>0.1294093093319001</v>
+        <v>0.225559551579212</v>
       </c>
       <c r="I94">
-        <v>0.006700543921618523</v>
+        <v>0.02725565399680491</v>
       </c>
       <c r="J94">
-        <v>0.0004486769287623863</v>
+        <v>0.001300794071503849</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4549,10 +4549,10 @@
         <v>14</v>
       </c>
       <c r="M94">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N94">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4563,10 +4563,10 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D95">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4575,16 +4575,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.7546539160589304</v>
+        <v>0.502048714846148</v>
       </c>
       <c r="H95">
-        <v>0.1299888499113629</v>
+        <v>0.2258557323334429</v>
       </c>
       <c r="I95">
-        <v>0.006604938579376694</v>
+        <v>0.02684113567279776</v>
       </c>
       <c r="J95">
-        <v>0.0004257327465723583</v>
+        <v>0.001219950196588505</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>14</v>
       </c>
       <c r="M95">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N95">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4607,10 +4607,10 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.7862499271434401</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D96">
-        <v>0.04700008181603711</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4619,16 +4619,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.7556460865144459</v>
+        <v>0.5049199985552465</v>
       </c>
       <c r="H96">
-        <v>0.1285059126093063</v>
+        <v>0.2300346006471277</v>
       </c>
       <c r="I96">
-        <v>0.006524766112595208</v>
+        <v>0.02639619376125902</v>
       </c>
       <c r="J96">
-        <v>0.0004319875957886438</v>
+        <v>0.00126147933224977</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>14</v>
       </c>
       <c r="M96">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N96">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4651,10 +4651,10 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.7862499271434401</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D97">
-        <v>0.04700008181603711</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4663,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.753302293548017</v>
+        <v>0.5084548653145552</v>
       </c>
       <c r="H97">
-        <v>0.1316315084445391</v>
+        <v>0.2355540554950955</v>
       </c>
       <c r="I97">
-        <v>0.006410324595256908</v>
+        <v>0.02590186841211849</v>
       </c>
       <c r="J97">
-        <v>0.0004030967774790822</v>
+        <v>0.001319367052532489</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>14</v>
       </c>
       <c r="M97">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N97">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4695,10 +4695,10 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.7862499271434401</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D98">
-        <v>0.04700008181603711</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4707,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.7536250527445045</v>
+        <v>0.5118111518194157</v>
       </c>
       <c r="H98">
-        <v>0.1303613706667781</v>
+        <v>0.2399854902321326</v>
       </c>
       <c r="I98">
-        <v>0.006326238869363889</v>
+        <v>0.02538512528767858</v>
       </c>
       <c r="J98">
-        <v>0.0004106954563846588</v>
+        <v>0.001401906351446456</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>14</v>
       </c>
       <c r="M98">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N98">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4739,10 +4739,10 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D99">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4751,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.7538654936199056</v>
+        <v>0.5137974841743237</v>
       </c>
       <c r="H99">
-        <v>0.1296124891623096</v>
+        <v>0.2401786920209044</v>
       </c>
       <c r="I99">
-        <v>0.006237271253540346</v>
+        <v>0.02486294929368668</v>
       </c>
       <c r="J99">
-        <v>0.0004135126161140602</v>
+        <v>0.001273047753284517</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>14</v>
       </c>
       <c r="M99">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N99">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4783,10 +4783,10 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D100">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4795,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.7547075971257727</v>
+        <v>0.5169590995084103</v>
       </c>
       <c r="H100">
-        <v>0.1296227503557551</v>
+        <v>0.2431499950054346</v>
       </c>
       <c r="I100">
-        <v>0.00615773430268923</v>
+        <v>0.02437352752032216</v>
       </c>
       <c r="J100">
-        <v>0.0003947668925089981</v>
+        <v>0.001467622644622049</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4813,10 +4813,10 @@
         <v>14</v>
       </c>
       <c r="M100">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N100">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4827,10 +4827,10 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.7821035856800254</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D101">
-        <v>0.04042455321235098</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4839,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.7542309908051708</v>
+        <v>0.5188507228988184</v>
       </c>
       <c r="H101">
-        <v>0.1302077259921256</v>
+        <v>0.2431608891291792</v>
       </c>
       <c r="I101">
-        <v>0.00607341729494682</v>
+        <v>0.02402329593537243</v>
       </c>
       <c r="J101">
-        <v>0.0003979215813352828</v>
+        <v>0.001492290451954213</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>14</v>
       </c>
       <c r="M101">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N101">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4871,10 +4871,10 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.7821035856800254</v>
+        <v>0.5649572649572649</v>
       </c>
       <c r="D102">
-        <v>0.04042455321235098</v>
+        <v>0.3465545849595567</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4883,16 +4883,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.7562306131620437</v>
+        <v>0.52136152041593</v>
       </c>
       <c r="H102">
-        <v>0.130207947574508</v>
+        <v>0.2477652897660549</v>
       </c>
       <c r="I102">
-        <v>0.00602416937950559</v>
+        <v>0.02373033985919547</v>
       </c>
       <c r="J102">
-        <v>0.000392582897821303</v>
+        <v>0.001573980778772962</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4901,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="M102">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N102">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4915,10 +4915,10 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D103">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4927,16 +4927,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.7568433080746755</v>
+        <v>0.5220604227974742</v>
       </c>
       <c r="H103">
-        <v>0.1313153254373326</v>
+        <v>0.2479684774897334</v>
       </c>
       <c r="I103">
-        <v>0.00597084436292842</v>
+        <v>0.02351921602098729</v>
       </c>
       <c r="J103">
-        <v>0.0004135338499800189</v>
+        <v>0.001675648601561657</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4945,10 +4945,10 @@
         <v>14</v>
       </c>
       <c r="M103">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N103">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4959,10 +4959,10 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D104">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4971,16 +4971,16 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.7567999690924838</v>
+        <v>0.5215307896609106</v>
       </c>
       <c r="H104">
-        <v>0.1317176977383855</v>
+        <v>0.2484348237055032</v>
       </c>
       <c r="I104">
-        <v>0.005879333667334485</v>
+        <v>0.02341262462981619</v>
       </c>
       <c r="J104">
-        <v>0.0003789980364681045</v>
+        <v>0.001554088282484848</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4989,10 +4989,10 @@
         <v>14</v>
       </c>
       <c r="M104">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N104">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5003,10 +5003,10 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D105">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5015,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.7589134281969684</v>
+        <v>0.5218089759072843</v>
       </c>
       <c r="H105">
-        <v>0.1333672666406566</v>
+        <v>0.2483898516085983</v>
       </c>
       <c r="I105">
-        <v>0.005797922048894321</v>
+        <v>0.02321837109958103</v>
       </c>
       <c r="J105">
-        <v>0.0003771235937797882</v>
+        <v>0.001345990043862717</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5033,10 +5033,10 @@
         <v>14</v>
       </c>
       <c r="M105">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N105">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5047,10 +5047,10 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D106">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5059,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.7597667614653382</v>
+        <v>0.5216595643498116</v>
       </c>
       <c r="H106">
-        <v>0.1338555096637833</v>
+        <v>0.2484398568874024</v>
       </c>
       <c r="I106">
-        <v>0.005717697048381333</v>
+        <v>0.02315499343341595</v>
       </c>
       <c r="J106">
-        <v>0.0003636911189355735</v>
+        <v>0.001320846566016162</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>14</v>
       </c>
       <c r="M106">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N106">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5091,10 +5091,10 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D107">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5103,16 +5103,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.759952507554883</v>
+        <v>0.5220412360141575</v>
       </c>
       <c r="H107">
-        <v>0.1352741269126985</v>
+        <v>0.248231717650736</v>
       </c>
       <c r="I107">
-        <v>0.005655166764292335</v>
+        <v>0.023089558095656</v>
       </c>
       <c r="J107">
-        <v>0.0003769780704005812</v>
+        <v>0.001305429355182488</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>14</v>
       </c>
       <c r="M107">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N107">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5135,10 +5135,10 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D108">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5147,16 +5147,16 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.7595651735813785</v>
+        <v>0.5225557403683071</v>
       </c>
       <c r="H108">
-        <v>0.135050991967392</v>
+        <v>0.2479714972150866</v>
       </c>
       <c r="I108">
-        <v>0.005578767040289887</v>
+        <v>0.02293112706849267</v>
       </c>
       <c r="J108">
-        <v>0.0003588020083533328</v>
+        <v>0.001175201223477008</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         <v>14</v>
       </c>
       <c r="M108">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N108">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5179,10 +5179,10 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.7821035856800254</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D109">
-        <v>0.04042455321235098</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5191,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.7610279224497066</v>
+        <v>0.5223601596151296</v>
       </c>
       <c r="H109">
-        <v>0.1355888341259441</v>
+        <v>0.2480939298804634</v>
       </c>
       <c r="I109">
-        <v>0.005512085496580865</v>
+        <v>0.02280109049249286</v>
       </c>
       <c r="J109">
-        <v>0.0003929189954114645</v>
+        <v>0.001051022896020622</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5209,10 +5209,10 @@
         <v>14</v>
       </c>
       <c r="M109">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N109">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5223,10 +5223,10 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D110">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.7610643523624336</v>
+        <v>0.5230762215956133</v>
       </c>
       <c r="H110">
-        <v>0.1363163638598266</v>
+        <v>0.2476002461873959</v>
       </c>
       <c r="I110">
-        <v>0.005471763021118481</v>
+        <v>0.02256402645315329</v>
       </c>
       <c r="J110">
-        <v>0.0004130602652790524</v>
+        <v>0.0008233325239042488</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>14</v>
       </c>
       <c r="M110">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N110">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5267,10 +5267,10 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D111">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.7614540965461789</v>
+        <v>0.5236455596355615</v>
       </c>
       <c r="H111">
-        <v>0.1377613702476524</v>
+        <v>0.2472998523448083</v>
       </c>
       <c r="I111">
-        <v>0.005434245945680946</v>
+        <v>0.02248258887888614</v>
       </c>
       <c r="J111">
-        <v>0.0004295570718870086</v>
+        <v>0.0008461690124163829</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5297,10 +5297,10 @@
         <v>14</v>
       </c>
       <c r="M111">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N111">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5311,10 +5311,10 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>0.7862499271434401</v>
+        <v>0.6149572649572649</v>
       </c>
       <c r="D112">
-        <v>0.04700008181603711</v>
+        <v>0.2489586757613249</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5323,16 +5323,16 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.7631588137874085</v>
+        <v>0.5243405267905479</v>
       </c>
       <c r="H112">
-        <v>0.1381233293506899</v>
+        <v>0.2467864385016618</v>
       </c>
       <c r="I112">
-        <v>0.005381449770830641</v>
+        <v>0.02226973969117363</v>
       </c>
       <c r="J112">
-        <v>0.0004554012867364891</v>
+        <v>0.0008218175126561796</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="M112">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N112">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5355,10 +5355,10 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D113">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5367,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.7638614384160543</v>
+        <v>0.5248612291805667</v>
       </c>
       <c r="H113">
-        <v>0.1390897408469673</v>
+        <v>0.2461089794664965</v>
       </c>
       <c r="I113">
-        <v>0.005332205422921688</v>
+        <v>0.02207182324432828</v>
       </c>
       <c r="J113">
-        <v>0.0004766174905301187</v>
+        <v>0.0009480116758916079</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5385,10 +5385,10 @@
         <v>14</v>
       </c>
       <c r="M113">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N113">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5399,10 +5399,10 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D114">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5411,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.763694642646759</v>
+        <v>0.5256776225058113</v>
       </c>
       <c r="H114">
-        <v>0.1389519031598661</v>
+        <v>0.2453012757977536</v>
       </c>
       <c r="I114">
-        <v>0.005291967923832332</v>
+        <v>0.02190045149276377</v>
       </c>
       <c r="J114">
-        <v>0.000498319070693889</v>
+        <v>0.001105024442677192</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5429,10 +5429,10 @@
         <v>14</v>
       </c>
       <c r="M114">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N114">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5443,10 +5443,10 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D115">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5455,16 +5455,16 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.7641153138570667</v>
+        <v>0.5266189187263718</v>
       </c>
       <c r="H115">
-        <v>0.13785646538718</v>
+        <v>0.2444451223880459</v>
       </c>
       <c r="I115">
-        <v>0.005268497604762162</v>
+        <v>0.0217426291239319</v>
       </c>
       <c r="J115">
-        <v>0.0005130391937282226</v>
+        <v>0.001277872928997397</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>14</v>
       </c>
       <c r="M115">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N115">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5487,10 +5487,10 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D116">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.7656836040550092</v>
+        <v>0.5276607126843605</v>
       </c>
       <c r="H116">
-        <v>0.1393900728616585</v>
+        <v>0.2433991948636292</v>
       </c>
       <c r="I116">
-        <v>0.005228436474932908</v>
+        <v>0.02159201752457902</v>
       </c>
       <c r="J116">
-        <v>0.0005416708526265896</v>
+        <v>0.001457742232630428</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>14</v>
       </c>
       <c r="M116">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N116">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5531,10 +5531,10 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D117">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5543,16 +5543,16 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.7657955859088661</v>
+        <v>0.5278757014834502</v>
       </c>
       <c r="H117">
-        <v>0.1391809387935889</v>
+        <v>0.2429776562525367</v>
       </c>
       <c r="I117">
-        <v>0.005195494704954883</v>
+        <v>0.02148327992148742</v>
       </c>
       <c r="J117">
-        <v>0.0005670305535671902</v>
+        <v>0.001593393835909729</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>14</v>
       </c>
       <c r="M117">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N117">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5575,10 +5575,10 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D118">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5587,16 +5587,16 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.7662387333594711</v>
+        <v>0.5285178848320313</v>
       </c>
       <c r="H118">
-        <v>0.1407051250835766</v>
+        <v>0.2423693777552445</v>
       </c>
       <c r="I118">
-        <v>0.005168420421847244</v>
+        <v>0.02137565968204409</v>
       </c>
       <c r="J118">
-        <v>0.0005876149182600214</v>
+        <v>0.001731336205342105</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>14</v>
       </c>
       <c r="M118">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N118">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5619,10 +5619,10 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D119">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5631,16 +5631,16 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0.7667751245036757</v>
+        <v>0.5293509895161733</v>
       </c>
       <c r="H119">
-        <v>0.141270889345364</v>
+        <v>0.2416822156701302</v>
       </c>
       <c r="I119">
-        <v>0.005147060448270013</v>
+        <v>0.02127557068643828</v>
       </c>
       <c r="J119">
-        <v>0.0006083526703797871</v>
+        <v>0.001861657490033498</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5649,10 +5649,10 @@
         <v>14</v>
       </c>
       <c r="M119">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N119">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5663,10 +5663,10 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D120">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5675,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0.7672310625436786</v>
+        <v>0.5295641520102414</v>
       </c>
       <c r="H120">
-        <v>0.1416711265717563</v>
+        <v>0.2412723210805654</v>
       </c>
       <c r="I120">
-        <v>0.005130643725068216</v>
+        <v>0.02118736153000275</v>
       </c>
       <c r="J120">
-        <v>0.000623723325966097</v>
+        <v>0.001978440234449182</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         <v>14</v>
       </c>
       <c r="M120">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N120">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5707,10 +5707,10 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D121">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5719,16 +5719,16 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0.7672957008402478</v>
+        <v>0.5301758218021261</v>
       </c>
       <c r="H121">
-        <v>0.1417522178864305</v>
+        <v>0.2406940773413715</v>
       </c>
       <c r="I121">
-        <v>0.005113720382302771</v>
+        <v>0.02105919031111059</v>
       </c>
       <c r="J121">
-        <v>0.0006400597460197604</v>
+        <v>0.002142371372330969</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>14</v>
       </c>
       <c r="M121">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N121">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5751,10 +5751,10 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D122">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5763,16 +5763,16 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.7684538187707624</v>
+        <v>0.5301724931715415</v>
       </c>
       <c r="H122">
-        <v>0.1428571220673629</v>
+        <v>0.2405834417101758</v>
       </c>
       <c r="I122">
-        <v>0.005092141214509629</v>
+        <v>0.0209851717956634</v>
       </c>
       <c r="J122">
-        <v>0.0006619584874471191</v>
+        <v>0.002240546733707181</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5781,10 +5781,10 @@
         <v>14</v>
       </c>
       <c r="M122">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N122">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5795,10 +5795,10 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D123">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5807,16 +5807,16 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.7686772564963459</v>
+        <v>0.5304358387165005</v>
       </c>
       <c r="H123">
-        <v>0.1432468725567808</v>
+        <v>0.2404648034034359</v>
       </c>
       <c r="I123">
-        <v>0.005081961453608586</v>
+        <v>0.02085712293436177</v>
       </c>
       <c r="J123">
-        <v>0.0006709896797366424</v>
+        <v>0.002407867745877867</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>14</v>
       </c>
       <c r="M123">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N123">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5839,10 +5839,10 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D124">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5851,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.768994227176963</v>
+        <v>0.5304230419631228</v>
       </c>
       <c r="H124">
-        <v>0.1438009417091776</v>
+        <v>0.2403560637495363</v>
       </c>
       <c r="I124">
-        <v>0.005070854578089035</v>
+        <v>0.02075962022628436</v>
       </c>
       <c r="J124">
-        <v>0.0006815744744364977</v>
+        <v>0.002535821332359208</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>14</v>
       </c>
       <c r="M124">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N124">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5883,10 +5883,10 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="D125">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5895,16 +5895,16 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0.7694425021753245</v>
+        <v>0.5306873518016446</v>
       </c>
       <c r="H125">
-        <v>0.1445868393073016</v>
+        <v>0.2402310842465007</v>
       </c>
       <c r="I125">
-        <v>0.005062219785368136</v>
+        <v>0.02063184886479455</v>
       </c>
       <c r="J125">
-        <v>0.0006903087878034649</v>
+        <v>0.002705653970093098</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5913,10 +5913,538 @@
         <v>14</v>
       </c>
       <c r="M125">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="N125">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D126">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0.5303067868932722</v>
+      </c>
+      <c r="H126">
+        <v>0.2406252444455924</v>
+      </c>
+      <c r="I126">
+        <v>0.02054669818063275</v>
+      </c>
+      <c r="J126">
+        <v>0.002818519417770864</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N126">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D127">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0.5301344338459889</v>
+      </c>
+      <c r="H127">
+        <v>0.2407600759923877</v>
+      </c>
+      <c r="I127">
+        <v>0.02046698564517447</v>
+      </c>
+      <c r="J127">
+        <v>0.00292577867226319</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N127">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D128">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0.5302071885210469</v>
+      </c>
+      <c r="H128">
+        <v>0.2409398034370699</v>
+      </c>
+      <c r="I128">
+        <v>0.02038759351827869</v>
+      </c>
+      <c r="J128">
+        <v>0.003031385297712993</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N128">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D129">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0.5306729782435765</v>
+      </c>
+      <c r="H129">
+        <v>0.2402072783187833</v>
+      </c>
+      <c r="I129">
+        <v>0.02029574377769681</v>
+      </c>
+      <c r="J129">
+        <v>0.003154485280858531</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N129">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D130">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0.5305855230759742</v>
+      </c>
+      <c r="H130">
+        <v>0.2402362585303238</v>
+      </c>
+      <c r="I130">
+        <v>0.0202113599840937</v>
+      </c>
+      <c r="J130">
+        <v>0.003268830671813036</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N130">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D131">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0.5309022494753107</v>
+      </c>
+      <c r="H131">
+        <v>0.2400241532656291</v>
+      </c>
+      <c r="I131">
+        <v>0.02016234254611055</v>
+      </c>
+      <c r="J131">
+        <v>0.003334548169606775</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N131">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D132">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0.531183811994519</v>
+      </c>
+      <c r="H132">
+        <v>0.2398539142663597</v>
+      </c>
+      <c r="I132">
+        <v>0.02004499893153595</v>
+      </c>
+      <c r="J132">
+        <v>0.003492972327391478</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N132">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D133">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0.5307138875338616</v>
+      </c>
+      <c r="H133">
+        <v>0.2404004765880548</v>
+      </c>
+      <c r="I133">
+        <v>0.01998727424578768</v>
+      </c>
+      <c r="J133">
+        <v>0.003571063099734801</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N133">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D134">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0.5306731461177051</v>
+      </c>
+      <c r="H134">
+        <v>0.2407155931126113</v>
+      </c>
+      <c r="I134">
+        <v>0.01990593058644871</v>
+      </c>
+      <c r="J134">
+        <v>0.00368057241048282</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N134">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D135">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0.5304974097976335</v>
+      </c>
+      <c r="H135">
+        <v>0.2408551806718969</v>
+      </c>
+      <c r="I135">
+        <v>0.01982699508235014</v>
+      </c>
+      <c r="J135">
+        <v>0.003786930920953007</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N135">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D136">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.5306448256714271</v>
+      </c>
+      <c r="H136">
+        <v>0.2406565040735707</v>
+      </c>
+      <c r="I136">
+        <v>0.01980119391073505</v>
+      </c>
+      <c r="J136">
+        <v>0.003823233016265092</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N136">
+        <v>0.06411794687223779</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0.5944444444444443</v>
+      </c>
+      <c r="D137">
+        <v>0.2370081000855727</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0.5308097037156354</v>
+      </c>
+      <c r="H137">
+        <v>0.2404346341036585</v>
+      </c>
+      <c r="I137">
+        <v>0.01974025825852312</v>
+      </c>
+      <c r="J137">
+        <v>0.003911010522226133</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="N137">
+        <v>0.06411794687223779</v>
       </c>
     </row>
   </sheetData>
